--- a/data/pca/factorExposure/factorExposure_2019-06-14.xlsx
+++ b/data/pca/factorExposure/factorExposure_2019-06-14.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="112">
   <si>
     <t>factor1</t>
   </si>
@@ -32,6 +32,15 @@
   </si>
   <si>
     <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
+  </si>
+  <si>
+    <t>factor9</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -698,13 +707,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G104"/>
+  <dimension ref="A1:J104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -723,79 +732,115 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B2">
-        <v>-0.1176291570077356</v>
+        <v>0.07843015150609636</v>
       </c>
       <c r="C2">
-        <v>-0.01892048258892082</v>
+        <v>0.01036786886827687</v>
       </c>
       <c r="D2">
-        <v>-0.01188993400050956</v>
+        <v>-0.03109462843048967</v>
       </c>
       <c r="E2">
-        <v>0.1129146871168811</v>
+        <v>0.1382818525856659</v>
       </c>
       <c r="F2">
-        <v>-0.04965961483623402</v>
+        <v>0.01626660721050711</v>
       </c>
       <c r="G2">
-        <v>0.08791059243010756</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>-0.07544584216530228</v>
+      </c>
+      <c r="H2">
+        <v>-0.08356210715117696</v>
+      </c>
+      <c r="I2">
+        <v>-0.07643417332722618</v>
+      </c>
+      <c r="J2">
+        <v>0.04163131454340329</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B3">
-        <v>-0.2080737064689274</v>
+        <v>0.1628215320763488</v>
       </c>
       <c r="C3">
-        <v>0.06911400167145049</v>
+        <v>0.07712781589053969</v>
       </c>
       <c r="D3">
-        <v>0.1019686674297058</v>
+        <v>0.05560854459409625</v>
       </c>
       <c r="E3">
-        <v>0.3086878516712225</v>
+        <v>0.3624520023338647</v>
       </c>
       <c r="F3">
-        <v>0.06915476207047035</v>
+        <v>0.1276680985169336</v>
       </c>
       <c r="G3">
-        <v>0.3198157109413148</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>0.02314911953725406</v>
+      </c>
+      <c r="H3">
+        <v>-0.2746865409165732</v>
+      </c>
+      <c r="I3">
+        <v>-0.1599828155877633</v>
+      </c>
+      <c r="J3">
+        <v>-0.0503753199520427</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B4">
-        <v>-0.09814457358288821</v>
+        <v>0.07348525211328782</v>
       </c>
       <c r="C4">
-        <v>0.01335150261457439</v>
+        <v>0.02798425645540125</v>
       </c>
       <c r="D4">
-        <v>0.006570959809699502</v>
+        <v>-0.02080520800854682</v>
       </c>
       <c r="E4">
-        <v>0.09611183986838157</v>
+        <v>0.0875341456439028</v>
       </c>
       <c r="F4">
-        <v>-0.02334164206173946</v>
+        <v>0.0561888196976889</v>
       </c>
       <c r="G4">
-        <v>0.02739949396837999</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>-0.0328512575660076</v>
+      </c>
+      <c r="H4">
+        <v>-0.03732427843385878</v>
+      </c>
+      <c r="I4">
+        <v>-0.01286481731121453</v>
+      </c>
+      <c r="J4">
+        <v>-0.04312459194201101</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -815,217 +860,307 @@
       <c r="G5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>0.01016972177300905</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>0.003477912279396102</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>-0.0007510002416107942</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>0.005563994665884166</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>0.002829256667232852</v>
       </c>
       <c r="G6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>0.01311815043154523</v>
+      </c>
+      <c r="H6">
+        <v>-0.005713204154026178</v>
+      </c>
+      <c r="I6">
+        <v>-0.003296834709609862</v>
+      </c>
+      <c r="J6">
+        <v>-0.001215792310405597</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B7">
-        <v>-0.04221769673401731</v>
+        <v>0.035272791537827</v>
       </c>
       <c r="C7">
-        <v>0.0008331942534471966</v>
+        <v>0.01393852290247667</v>
       </c>
       <c r="D7">
-        <v>-0.02105186146144571</v>
+        <v>-0.01543533509928216</v>
       </c>
       <c r="E7">
-        <v>0.06992579641603146</v>
+        <v>0.05794981845146611</v>
       </c>
       <c r="F7">
-        <v>0.06091212191213647</v>
+        <v>0.03115322247869746</v>
       </c>
       <c r="G7">
-        <v>0.01970739670558333</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>0.01671437827047883</v>
+      </c>
+      <c r="H7">
+        <v>-0.04317570228022086</v>
+      </c>
+      <c r="I7">
+        <v>0.005962044924612769</v>
+      </c>
+      <c r="J7">
+        <v>-0.03301956945148555</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B8">
-        <v>-0.04063364106188509</v>
+        <v>0.03195135908552186</v>
       </c>
       <c r="C8">
-        <v>0.03039919177393142</v>
+        <v>0.03250117108002596</v>
       </c>
       <c r="D8">
-        <v>0.01239517648444746</v>
+        <v>-0.005199932226328332</v>
       </c>
       <c r="E8">
-        <v>0.07050172907873578</v>
+        <v>0.07763065679888097</v>
       </c>
       <c r="F8">
-        <v>0.01444804635466534</v>
+        <v>0.05007904057658587</v>
       </c>
       <c r="G8">
-        <v>0.04966959799383673</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>0.002902824218378464</v>
+      </c>
+      <c r="H8">
+        <v>-0.05781053094175353</v>
+      </c>
+      <c r="I8">
+        <v>-0.03442957191423171</v>
+      </c>
+      <c r="J8">
+        <v>-0.02313621043726131</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B9">
-        <v>-0.08646848739370422</v>
+        <v>0.0633811479455826</v>
       </c>
       <c r="C9">
-        <v>0.01486541002957239</v>
+        <v>0.02668492698476509</v>
       </c>
       <c r="D9">
-        <v>-0.007635994102605089</v>
+        <v>-0.02207027868340275</v>
       </c>
       <c r="E9">
-        <v>0.08576172303468912</v>
+        <v>0.08462538967290614</v>
       </c>
       <c r="F9">
-        <v>-0.01307587340759376</v>
+        <v>0.06113881159723496</v>
       </c>
       <c r="G9">
-        <v>0.02803285233316729</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>-0.0246200374272206</v>
+      </c>
+      <c r="H9">
+        <v>-0.03380677865460148</v>
+      </c>
+      <c r="I9">
+        <v>-0.00988521316360042</v>
+      </c>
+      <c r="J9">
+        <v>-0.01208621622920272</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B10">
-        <v>0.02178218491256575</v>
+        <v>0.003056901270227379</v>
       </c>
       <c r="C10">
-        <v>-0.1613406850649733</v>
+        <v>-0.1598484550882576</v>
       </c>
       <c r="D10">
-        <v>0.006494153727222566</v>
+        <v>0.01135710628144106</v>
       </c>
       <c r="E10">
-        <v>0.02991515564290058</v>
+        <v>0.04768382825074394</v>
       </c>
       <c r="F10">
-        <v>0.01368437084579178</v>
+        <v>0.002929336867031387</v>
       </c>
       <c r="G10">
-        <v>-0.01473234539835889</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>-0.01000973838309191</v>
+      </c>
+      <c r="H10">
+        <v>0.01852796854698347</v>
+      </c>
+      <c r="I10">
+        <v>-0.1102290716801904</v>
+      </c>
+      <c r="J10">
+        <v>-0.06025617325354302</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B11">
-        <v>-0.05957876543688904</v>
+        <v>0.05095705432969055</v>
       </c>
       <c r="C11">
-        <v>-0.003432740119488869</v>
+        <v>0.01527341073744517</v>
       </c>
       <c r="D11">
-        <v>0.0158032955955424</v>
+        <v>-0.0041392672934085</v>
       </c>
       <c r="E11">
-        <v>0.04005392699218706</v>
+        <v>0.04870850268019284</v>
       </c>
       <c r="F11">
-        <v>0.007342375690966152</v>
+        <v>0.004008869652556614</v>
       </c>
       <c r="G11">
-        <v>-0.01054995137169047</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>-0.001894991997865516</v>
+      </c>
+      <c r="H11">
+        <v>-0.01933875060647254</v>
+      </c>
+      <c r="I11">
+        <v>0.01266873464907445</v>
+      </c>
+      <c r="J11">
+        <v>0.002411890587353504</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B12">
-        <v>-0.04988262915739179</v>
+        <v>0.0490958739904184</v>
       </c>
       <c r="C12">
-        <v>0.001350986802885134</v>
+        <v>0.01666105098650772</v>
       </c>
       <c r="D12">
-        <v>0.008130822418191104</v>
+        <v>-0.006893127974084204</v>
       </c>
       <c r="E12">
-        <v>0.02492036490529984</v>
+        <v>0.02568951624864045</v>
       </c>
       <c r="F12">
-        <v>0.01143591968903111</v>
+        <v>0.01873314164270045</v>
       </c>
       <c r="G12">
-        <v>0.0009150724612867751</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>0.002517965384829639</v>
+      </c>
+      <c r="H12">
+        <v>-0.007786030240499551</v>
+      </c>
+      <c r="I12">
+        <v>0.0196830648175939</v>
+      </c>
+      <c r="J12">
+        <v>0.00399720129978027</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B13">
-        <v>-0.05796753083968033</v>
+        <v>0.03989091118983593</v>
       </c>
       <c r="C13">
-        <v>0.01141096514288095</v>
+        <v>0.01754621527868095</v>
       </c>
       <c r="D13">
-        <v>0.0298963391372631</v>
+        <v>-0.002291338636088735</v>
       </c>
       <c r="E13">
-        <v>0.1083795309928911</v>
+        <v>0.1050153369101978</v>
       </c>
       <c r="F13">
-        <v>0.01548437662488301</v>
+        <v>0.01183158491755682</v>
       </c>
       <c r="G13">
-        <v>0.02574305387036704</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>0.001217106905535734</v>
+      </c>
+      <c r="H13">
+        <v>-0.05723682860002594</v>
+      </c>
+      <c r="I13">
+        <v>-0.03193266307202441</v>
+      </c>
+      <c r="J13">
+        <v>0.01783265235493147</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B14">
-        <v>-0.03759010216125765</v>
+        <v>0.02900893324170649</v>
       </c>
       <c r="C14">
-        <v>0.003072936250788624</v>
+        <v>0.01198399529599689</v>
       </c>
       <c r="D14">
-        <v>-0.01492434280385475</v>
+        <v>-0.02024048257199773</v>
       </c>
       <c r="E14">
-        <v>0.02366179590526813</v>
+        <v>0.03716991196848626</v>
       </c>
       <c r="F14">
-        <v>0.009260525993232944</v>
+        <v>0.02142373125452358</v>
       </c>
       <c r="G14">
-        <v>0.03690676928423198</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>-0.01339730982849683</v>
+      </c>
+      <c r="H14">
+        <v>-0.06271775930610916</v>
+      </c>
+      <c r="I14">
+        <v>-0.02059111631884893</v>
+      </c>
+      <c r="J14">
+        <v>-0.01228776796174433</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -1045,33 +1180,51 @@
       <c r="G15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B16">
-        <v>-0.05223168189345761</v>
+        <v>0.0434276829134997</v>
       </c>
       <c r="C16">
-        <v>0.0149606059995717</v>
+        <v>0.02457129422321756</v>
       </c>
       <c r="D16">
-        <v>0.0262982774509409</v>
+        <v>0.002492719433267278</v>
       </c>
       <c r="E16">
-        <v>0.03797011989610266</v>
+        <v>0.04551831222510556</v>
       </c>
       <c r="F16">
-        <v>0.01014610727195635</v>
+        <v>0.007613219852463604</v>
       </c>
       <c r="G16">
-        <v>-0.006574249155084731</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>0.004626628674650424</v>
+      </c>
+      <c r="H16">
+        <v>-0.01856492694332347</v>
+      </c>
+      <c r="I16">
+        <v>0.01499196100531491</v>
+      </c>
+      <c r="J16">
+        <v>-0.002591697876810258</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1091,10 +1244,19 @@
       <c r="G17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1114,79 +1276,115 @@
       <c r="G18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B19">
-        <v>-0.04697289677159682</v>
+        <v>0.04787131639422738</v>
       </c>
       <c r="C19">
-        <v>0.02529125466193677</v>
+        <v>0.02928655525646503</v>
       </c>
       <c r="D19">
-        <v>0.0161320009559306</v>
+        <v>-0.002799112804693391</v>
       </c>
       <c r="E19">
-        <v>0.0774861622554556</v>
+        <v>0.09338161668258296</v>
       </c>
       <c r="F19">
-        <v>0.0209723311552508</v>
+        <v>0.03579676382249403</v>
       </c>
       <c r="G19">
-        <v>0.05077207168916586</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+        <v>0.008388190671481855</v>
+      </c>
+      <c r="H19">
+        <v>-0.07763717734439209</v>
+      </c>
+      <c r="I19">
+        <v>-0.06770609683052975</v>
+      </c>
+      <c r="J19">
+        <v>0.002936167949897756</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B20">
-        <v>-0.03470749826709449</v>
+        <v>0.01854709469776685</v>
       </c>
       <c r="C20">
-        <v>0.0287932700905279</v>
+        <v>0.03019781538709806</v>
       </c>
       <c r="D20">
-        <v>0.008932875798576727</v>
+        <v>-0.009982991318445265</v>
       </c>
       <c r="E20">
-        <v>0.06950234130892081</v>
+        <v>0.07135987463495851</v>
       </c>
       <c r="F20">
-        <v>0.02842505668838627</v>
+        <v>0.03727183210821099</v>
       </c>
       <c r="G20">
-        <v>0.04688769418979818</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>0.009853205229457811</v>
+      </c>
+      <c r="H20">
+        <v>-0.07757509197929453</v>
+      </c>
+      <c r="I20">
+        <v>-0.01736995553908433</v>
+      </c>
+      <c r="J20">
+        <v>-0.02288037131785891</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B21">
-        <v>-0.03671703987428271</v>
+        <v>0.01741980369588782</v>
       </c>
       <c r="C21">
-        <v>0.0104714178920755</v>
+        <v>0.02037977131455828</v>
       </c>
       <c r="D21">
-        <v>0.02471305393587452</v>
+        <v>0.01048875453967626</v>
       </c>
       <c r="E21">
-        <v>0.08975974571089462</v>
+        <v>0.08060018300312846</v>
       </c>
       <c r="F21">
-        <v>-0.008127651759833971</v>
+        <v>0.02820596188987859</v>
       </c>
       <c r="G21">
-        <v>0.03338092668287759</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>-0.01171791873453685</v>
+      </c>
+      <c r="H21">
+        <v>-0.04665926624139846</v>
+      </c>
+      <c r="I21">
+        <v>-0.008185802232287705</v>
+      </c>
+      <c r="J21">
+        <v>0.02451930655188244</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1206,10 +1404,19 @@
       <c r="G22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1229,263 +1436,371 @@
       <c r="G23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B24">
-        <v>-0.04673487683872689</v>
+        <v>0.04133682379748772</v>
       </c>
       <c r="C24">
-        <v>0.00815516116209665</v>
+        <v>0.01417121678681348</v>
       </c>
       <c r="D24">
-        <v>0.01410912746553815</v>
+        <v>-0.004035345589050711</v>
       </c>
       <c r="E24">
-        <v>0.05182687216622905</v>
+        <v>0.04897809461889886</v>
       </c>
       <c r="F24">
-        <v>0.01367383278080697</v>
+        <v>0.008580595103363656</v>
       </c>
       <c r="G24">
-        <v>-0.01047662900304738</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>0.01132493716830744</v>
+      </c>
+      <c r="H24">
+        <v>-0.01582385297548354</v>
+      </c>
+      <c r="I24">
+        <v>0.01116095352528728</v>
+      </c>
+      <c r="J24">
+        <v>-0.002831361493545024</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B25">
-        <v>-0.05083264215754162</v>
+        <v>0.04477792734753357</v>
       </c>
       <c r="C25">
-        <v>-0.002500234691351341</v>
+        <v>0.01426068975418803</v>
       </c>
       <c r="D25">
-        <v>0.01420027372820112</v>
+        <v>-0.00272432979731878</v>
       </c>
       <c r="E25">
-        <v>0.03831482976276348</v>
+        <v>0.04804722151653956</v>
       </c>
       <c r="F25">
-        <v>0.009857042819397682</v>
+        <v>0.01174054125594649</v>
       </c>
       <c r="G25">
-        <v>-0.01430764121453409</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>0.005667087496258311</v>
+      </c>
+      <c r="H25">
+        <v>-0.009301324673318673</v>
+      </c>
+      <c r="I25">
+        <v>0.01244664921167611</v>
+      </c>
+      <c r="J25">
+        <v>0.007153387583996485</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B26">
-        <v>-0.0009217090048474849</v>
+        <v>0.008440262952565274</v>
       </c>
       <c r="C26">
-        <v>0.01489465993216877</v>
+        <v>0.01563284769943072</v>
       </c>
       <c r="D26">
-        <v>0.002180536517637268</v>
+        <v>0.006384885696241346</v>
       </c>
       <c r="E26">
-        <v>0.05614794850006877</v>
+        <v>0.05942808462066883</v>
       </c>
       <c r="F26">
-        <v>-0.00156463555198565</v>
+        <v>0.0006796901178831012</v>
       </c>
       <c r="G26">
-        <v>0.0150435644421272</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>-0.005207431815362536</v>
+      </c>
+      <c r="H26">
+        <v>-0.03735107589543337</v>
+      </c>
+      <c r="I26">
+        <v>0.001246862120265079</v>
+      </c>
+      <c r="J26">
+        <v>-0.01475613537493919</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B27">
-        <v>-0.1087216576743689</v>
+        <v>0.08944967041273763</v>
       </c>
       <c r="C27">
-        <v>-4.719311145920104e-05</v>
+        <v>0.0144123550105693</v>
       </c>
       <c r="D27">
-        <v>-0.0004340647694608997</v>
+        <v>-0.02772831733461047</v>
       </c>
       <c r="E27">
-        <v>0.1112583935064058</v>
+        <v>0.08664999668563546</v>
       </c>
       <c r="F27">
-        <v>0.02200327481108448</v>
+        <v>0.04617435448059817</v>
       </c>
       <c r="G27">
-        <v>-0.0207037672956578</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
+        <v>0.00402925134777002</v>
+      </c>
+      <c r="H27">
+        <v>-0.009711890136829101</v>
+      </c>
+      <c r="I27">
+        <v>0.003469692298283506</v>
+      </c>
+      <c r="J27">
+        <v>-0.01878419295821136</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B28">
-        <v>0.02717117476956303</v>
+        <v>0.009240692754419711</v>
       </c>
       <c r="C28">
-        <v>-0.2343394223866271</v>
+        <v>-0.2300419515696953</v>
       </c>
       <c r="D28">
-        <v>0.01934710081567709</v>
+        <v>0.01761409976458021</v>
       </c>
       <c r="E28">
-        <v>0.008950807432505878</v>
+        <v>0.03651372201159704</v>
       </c>
       <c r="F28">
-        <v>0.007354200719792718</v>
+        <v>-0.001082924855508061</v>
       </c>
       <c r="G28">
-        <v>-0.04473314294443904</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>-0.01310900826960821</v>
+      </c>
+      <c r="H28">
+        <v>0.0384173926690696</v>
+      </c>
+      <c r="I28">
+        <v>-0.1460881392024004</v>
+      </c>
+      <c r="J28">
+        <v>-0.08911189369902008</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B29">
-        <v>-0.01929106284847797</v>
+        <v>0.01975811670306902</v>
       </c>
       <c r="C29">
-        <v>0.01387745871551072</v>
+        <v>0.01780806183107915</v>
       </c>
       <c r="D29">
-        <v>-0.0139336476313419</v>
+        <v>-0.01656767160420046</v>
       </c>
       <c r="E29">
-        <v>0.04086688019620643</v>
+        <v>0.03622009882717232</v>
       </c>
       <c r="F29">
-        <v>0.003147647433981001</v>
+        <v>0.03211903593646376</v>
       </c>
       <c r="G29">
-        <v>0.04176051581991867</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>-0.01785713604755358</v>
+      </c>
+      <c r="H29">
+        <v>-0.06157822366583252</v>
+      </c>
+      <c r="I29">
+        <v>-0.00825216714831487</v>
+      </c>
+      <c r="J29">
+        <v>-0.01652507446753328</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B30">
-        <v>-0.1050968073823954</v>
+        <v>0.1036206593073967</v>
       </c>
       <c r="C30">
-        <v>-0.003799519607498598</v>
+        <v>0.02472888007110911</v>
       </c>
       <c r="D30">
-        <v>0.009580865008134412</v>
+        <v>-0.02674374919144321</v>
       </c>
       <c r="E30">
-        <v>0.1267118282368564</v>
+        <v>0.1141197541792725</v>
       </c>
       <c r="F30">
-        <v>0.02800319831780084</v>
+        <v>0.01868429887620474</v>
       </c>
       <c r="G30">
-        <v>-0.08473867618975228</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>0.02803516753154089</v>
+      </c>
+      <c r="H30">
+        <v>-0.01007937254743833</v>
+      </c>
+      <c r="I30">
+        <v>0.02746161608091494</v>
+      </c>
+      <c r="J30">
+        <v>0.01762693073300132</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B31">
-        <v>-0.05516258796781502</v>
+        <v>0.05722440655247158</v>
       </c>
       <c r="C31">
-        <v>0.007929448990331848</v>
+        <v>0.014623501988267</v>
       </c>
       <c r="D31">
-        <v>-0.01699152281649809</v>
+        <v>-0.01440874901637887</v>
       </c>
       <c r="E31">
-        <v>0.002135970192516462</v>
+        <v>0.01825396346349262</v>
       </c>
       <c r="F31">
-        <v>-0.01284499073895361</v>
+        <v>-0.01593437632255247</v>
       </c>
       <c r="G31">
-        <v>0.02160735133573034</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>-0.037231896730589</v>
+      </c>
+      <c r="H31">
+        <v>-0.04958980610385959</v>
+      </c>
+      <c r="I31">
+        <v>-0.01514127816136549</v>
+      </c>
+      <c r="J31">
+        <v>-0.01779426970643697</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B32">
-        <v>-0.06632802888685717</v>
+        <v>0.04819947219511894</v>
       </c>
       <c r="C32">
-        <v>0.0156851530867824</v>
+        <v>0.04015265714347747</v>
       </c>
       <c r="D32">
-        <v>0.009891970708506807</v>
+        <v>-0.01509962789759344</v>
       </c>
       <c r="E32">
-        <v>0.1098507303261923</v>
+        <v>0.09926026095125652</v>
       </c>
       <c r="F32">
-        <v>0.05209640628433151</v>
+        <v>0.04364669069121004</v>
       </c>
       <c r="G32">
-        <v>0.01828487367825882</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>0.02017588786436135</v>
+      </c>
+      <c r="H32">
+        <v>-0.06179960559220624</v>
+      </c>
+      <c r="I32">
+        <v>-0.03434189696119908</v>
+      </c>
+      <c r="J32">
+        <v>0.01987085817241932</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B33">
-        <v>-0.06821402954164295</v>
+        <v>0.05935140280834315</v>
       </c>
       <c r="C33">
-        <v>0.02103669051862117</v>
+        <v>0.03736054405127183</v>
       </c>
       <c r="D33">
-        <v>0.005452162522488076</v>
+        <v>-0.001732025788293894</v>
       </c>
       <c r="E33">
-        <v>0.08057962608753155</v>
+        <v>0.08940519013697915</v>
       </c>
       <c r="F33">
-        <v>-0.0112471410593384</v>
+        <v>0.01394838377006526</v>
       </c>
       <c r="G33">
-        <v>0.01442396494913614</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>-0.01315142267279232</v>
+      </c>
+      <c r="H33">
+        <v>-0.05240870339528191</v>
+      </c>
+      <c r="I33">
+        <v>0.009763040480646556</v>
+      </c>
+      <c r="J33">
+        <v>-0.001302956328457102</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B34">
-        <v>-0.04757592651796359</v>
+        <v>0.04289724733925943</v>
       </c>
       <c r="C34">
-        <v>0.009086926128404922</v>
+        <v>0.01992791844578063</v>
       </c>
       <c r="D34">
-        <v>0.01234168130888396</v>
+        <v>-0.007088281373098432</v>
       </c>
       <c r="E34">
-        <v>0.0233734386446435</v>
+        <v>0.03902356104625099</v>
       </c>
       <c r="F34">
-        <v>0.01059173935467511</v>
+        <v>0.008812834023118393</v>
       </c>
       <c r="G34">
-        <v>0.007402635484508011</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <v>0.003219490499309883</v>
+      </c>
+      <c r="H34">
+        <v>-0.02238665658069526</v>
+      </c>
+      <c r="I34">
+        <v>0.007238685966270257</v>
+      </c>
+      <c r="J34">
+        <v>0.01077775352250243</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1505,33 +1820,51 @@
       <c r="G35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:7">
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B36">
-        <v>-0.01058474528892221</v>
+        <v>0.01277670819862628</v>
       </c>
       <c r="C36">
-        <v>-0.01007476434326289</v>
+        <v>-0.0002928383625003752</v>
       </c>
       <c r="D36">
-        <v>-0.0001763338479819683</v>
+        <v>-0.004548458186959041</v>
       </c>
       <c r="E36">
-        <v>0.02456275901359669</v>
+        <v>0.02919064187597059</v>
       </c>
       <c r="F36">
-        <v>-0.001175530749861162</v>
+        <v>0.01308595158026529</v>
       </c>
       <c r="G36">
-        <v>0.008258707703786896</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+        <v>-0.01374167066340609</v>
+      </c>
+      <c r="H36">
+        <v>-0.03609987391893007</v>
+      </c>
+      <c r="I36">
+        <v>-0.01368501970390523</v>
+      </c>
+      <c r="J36">
+        <v>0.004673279136037043</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1551,171 +1884,243 @@
       <c r="G37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:7">
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B38">
-        <v>-0.05443987864330262</v>
+        <v>0.0303535116841184</v>
       </c>
       <c r="C38">
-        <v>0.0003002804361880161</v>
+        <v>0.006964913566957674</v>
       </c>
       <c r="D38">
-        <v>-0.01765087747755344</v>
+        <v>-0.005771127579449055</v>
       </c>
       <c r="E38">
-        <v>0.03840559022489488</v>
+        <v>0.04650626988328163</v>
       </c>
       <c r="F38">
-        <v>0.003477766832721993</v>
+        <v>0.02125205971786708</v>
       </c>
       <c r="G38">
-        <v>0.02216603463072643</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+        <v>-0.01465794933578794</v>
+      </c>
+      <c r="H38">
+        <v>-0.01187295523000033</v>
+      </c>
+      <c r="I38">
+        <v>-0.009309930261896903</v>
+      </c>
+      <c r="J38">
+        <v>0.01324453658517483</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B39">
-        <v>-0.0772794043211403</v>
+        <v>0.06355756200468754</v>
       </c>
       <c r="C39">
-        <v>0.005264115698154576</v>
+        <v>0.02752091888520621</v>
       </c>
       <c r="D39">
-        <v>0.008399325378386913</v>
+        <v>-0.01764821939192131</v>
       </c>
       <c r="E39">
-        <v>0.0484447209305033</v>
+        <v>0.06302369811291927</v>
       </c>
       <c r="F39">
-        <v>-0.003912689267585635</v>
+        <v>0.002418862535793754</v>
       </c>
       <c r="G39">
-        <v>-0.01454679822028155</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+        <v>-0.003576065575819714</v>
+      </c>
+      <c r="H39">
+        <v>-0.01963630313574768</v>
+      </c>
+      <c r="I39">
+        <v>0.02035545627227302</v>
+      </c>
+      <c r="J39">
+        <v>0.01814357403229938</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B40">
-        <v>-0.07142779548929676</v>
+        <v>0.0564719474931219</v>
       </c>
       <c r="C40">
-        <v>0.02309152188609718</v>
+        <v>0.02995629069499408</v>
       </c>
       <c r="D40">
-        <v>0.02081942254061915</v>
+        <v>-0.01716393240396922</v>
       </c>
       <c r="E40">
-        <v>0.1144754080344658</v>
+        <v>0.1120853562176382</v>
       </c>
       <c r="F40">
-        <v>0.004617547202969137</v>
+        <v>0.009082751996250442</v>
       </c>
       <c r="G40">
-        <v>0.0666606315852717</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+        <v>0.006355062460369464</v>
+      </c>
+      <c r="H40">
+        <v>-0.08359779331108884</v>
+      </c>
+      <c r="I40">
+        <v>-0.02635274171651429</v>
+      </c>
+      <c r="J40">
+        <v>0.005835382744499377</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B41">
-        <v>-0.002671292716987662</v>
+        <v>0.0001501558140496899</v>
       </c>
       <c r="C41">
-        <v>0.006788530895496516</v>
+        <v>0.009249919767267916</v>
       </c>
       <c r="D41">
-        <v>-0.01121739002841429</v>
+        <v>-0.002343882966570265</v>
       </c>
       <c r="E41">
-        <v>0.02497067714684086</v>
+        <v>0.02101043545311997</v>
       </c>
       <c r="F41">
-        <v>-0.02008615169114554</v>
+        <v>0.009287924664865214</v>
       </c>
       <c r="G41">
-        <v>0.02576838722884013</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+        <v>-0.03019907436544789</v>
+      </c>
+      <c r="H41">
+        <v>-0.04057269709288577</v>
+      </c>
+      <c r="I41">
+        <v>-0.01805206992857385</v>
+      </c>
+      <c r="J41">
+        <v>-0.02887810542450478</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B42">
-        <v>-0.144395442530435</v>
+        <v>0.2491818833147519</v>
       </c>
       <c r="C42">
-        <v>0.1643055793127537</v>
+        <v>0.1144715338450844</v>
       </c>
       <c r="D42">
-        <v>0.9144774479577333</v>
+        <v>0.915373830215808</v>
       </c>
       <c r="E42">
-        <v>-0.1700631335358522</v>
+        <v>-0.1265455562430702</v>
       </c>
       <c r="F42">
-        <v>-0.02272701175410673</v>
+        <v>-0.1978622265712243</v>
       </c>
       <c r="G42">
-        <v>-0.1369066324520958</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
+        <v>0.009425504715683038</v>
+      </c>
+      <c r="H42">
+        <v>0.01163488080677977</v>
+      </c>
+      <c r="I42">
+        <v>-0.03197290785925716</v>
+      </c>
+      <c r="J42">
+        <v>-0.04773910275374733</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B43">
-        <v>-0.008531993407794751</v>
+        <v>0.001645986376791454</v>
       </c>
       <c r="C43">
-        <v>0.00857918879693044</v>
+        <v>0.01210091706039553</v>
       </c>
       <c r="D43">
-        <v>-0.01257581376204293</v>
+        <v>-0.003742007798243352</v>
       </c>
       <c r="E43">
-        <v>0.03742369257029078</v>
+        <v>0.03204095467593446</v>
       </c>
       <c r="F43">
-        <v>0.01131679022906719</v>
+        <v>0.008201280809047695</v>
       </c>
       <c r="G43">
-        <v>0.0218165900905627</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+        <v>-0.008347904890695925</v>
+      </c>
+      <c r="H43">
+        <v>-0.03725439264947904</v>
+      </c>
+      <c r="I43">
+        <v>-0.008969759524648173</v>
+      </c>
+      <c r="J43">
+        <v>-0.02176309638437984</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B44">
-        <v>-0.04425279093575025</v>
+        <v>0.02888402879766827</v>
       </c>
       <c r="C44">
-        <v>0.02606190433480612</v>
+        <v>0.02876875450747184</v>
       </c>
       <c r="D44">
-        <v>0.01416882303691725</v>
+        <v>0.003624953620790419</v>
       </c>
       <c r="E44">
-        <v>0.1236661194018838</v>
+        <v>0.1208180121684143</v>
       </c>
       <c r="F44">
-        <v>-0.02631652014102038</v>
+        <v>0.03846821483297405</v>
       </c>
       <c r="G44">
-        <v>0.1008759380429527</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+        <v>-0.02588717638028323</v>
+      </c>
+      <c r="H44">
+        <v>-0.1150545665957199</v>
+      </c>
+      <c r="I44">
+        <v>-0.0382662551624965</v>
+      </c>
+      <c r="J44">
+        <v>-0.006062033918859924</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1735,79 +2140,115 @@
       <c r="G45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:7">
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B46">
-        <v>-0.02050641659749314</v>
+        <v>0.02096382308229176</v>
       </c>
       <c r="C46">
-        <v>0.01037798626969498</v>
+        <v>0.02250779645870913</v>
       </c>
       <c r="D46">
-        <v>-0.01898487350974181</v>
+        <v>-0.01498982986092872</v>
       </c>
       <c r="E46">
-        <v>0.0332383043044994</v>
+        <v>0.04816981274692677</v>
       </c>
       <c r="F46">
-        <v>-0.01667022193940491</v>
+        <v>0.01594034787242078</v>
       </c>
       <c r="G46">
-        <v>0.03831110221873068</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
+        <v>-0.01813323794873146</v>
+      </c>
+      <c r="H46">
+        <v>-0.06356174401695441</v>
+      </c>
+      <c r="I46">
+        <v>-0.005643064207995151</v>
+      </c>
+      <c r="J46">
+        <v>-0.03586703764326838</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B47">
-        <v>-0.0793432505282205</v>
+        <v>0.0878180301975458</v>
       </c>
       <c r="C47">
-        <v>0.001572158225320549</v>
+        <v>0.01191422070934628</v>
       </c>
       <c r="D47">
-        <v>-0.01823603867667569</v>
+        <v>-0.02073694249872693</v>
       </c>
       <c r="E47">
-        <v>-0.002050621581375569</v>
+        <v>0.006114868315852355</v>
       </c>
       <c r="F47">
-        <v>-0.01127641196336186</v>
+        <v>-0.001764736329573222</v>
       </c>
       <c r="G47">
-        <v>0.04277774129810982</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
+        <v>-0.03527756006779564</v>
+      </c>
+      <c r="H47">
+        <v>-0.06909397257246787</v>
+      </c>
+      <c r="I47">
+        <v>-0.0182650532435139</v>
+      </c>
+      <c r="J47">
+        <v>-0.02719131812235151</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B48">
-        <v>-0.01354959369024231</v>
+        <v>0.0138509325742978</v>
       </c>
       <c r="C48">
-        <v>0.01352399712107729</v>
+        <v>0.01727744828542853</v>
       </c>
       <c r="D48">
-        <v>-0.00776421954375378</v>
+        <v>-0.003682648261338056</v>
       </c>
       <c r="E48">
-        <v>0.03872429902936475</v>
+        <v>0.04025327221123223</v>
       </c>
       <c r="F48">
-        <v>-0.004190929011423651</v>
+        <v>0.01374511279102095</v>
       </c>
       <c r="G48">
-        <v>0.007353528137357653</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
+        <v>-0.005718642212488276</v>
+      </c>
+      <c r="H48">
+        <v>-0.02534662678618119</v>
+      </c>
+      <c r="I48">
+        <v>-0.01205220472834713</v>
+      </c>
+      <c r="J48">
+        <v>-0.01439904643879459</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1827,56 +2268,83 @@
       <c r="G49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:7">
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B50">
-        <v>-0.07830198981990823</v>
+        <v>0.08048925741622144</v>
       </c>
       <c r="C50">
-        <v>0.027075767522194</v>
+        <v>0.03436612317201525</v>
       </c>
       <c r="D50">
-        <v>-0.01804019818303801</v>
+        <v>-0.0171572132587558</v>
       </c>
       <c r="E50">
-        <v>-0.01161188214777434</v>
+        <v>0.009517273889784289</v>
       </c>
       <c r="F50">
-        <v>-0.0181942298599317</v>
+        <v>-0.002833949483080915</v>
       </c>
       <c r="G50">
-        <v>0.0198577550450808</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
+        <v>-0.01115241463695483</v>
+      </c>
+      <c r="H50">
+        <v>-0.05088618538412322</v>
+      </c>
+      <c r="I50">
+        <v>-0.01957104467131628</v>
+      </c>
+      <c r="J50">
+        <v>0.003406647619708016</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B51">
-        <v>-0.06509781645628064</v>
+        <v>0.04751180668372581</v>
       </c>
       <c r="C51">
-        <v>-0.03595441379765194</v>
+        <v>-0.01379991607407116</v>
       </c>
       <c r="D51">
-        <v>-0.002275439600033367</v>
+        <v>-0.006148963410627243</v>
       </c>
       <c r="E51">
-        <v>0.08341457608799527</v>
+        <v>0.1041935273149857</v>
       </c>
       <c r="F51">
-        <v>-0.03298184590669967</v>
+        <v>0.00750962102665436</v>
       </c>
       <c r="G51">
-        <v>0.01622417453878777</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
+        <v>-0.04184219202077941</v>
+      </c>
+      <c r="H51">
+        <v>-0.05374533329643958</v>
+      </c>
+      <c r="I51">
+        <v>-0.02374050573048321</v>
+      </c>
+      <c r="J51">
+        <v>-0.06862132847404076</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1896,217 +2364,307 @@
       <c r="G52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:7">
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B53">
-        <v>-0.1453607239230819</v>
+        <v>0.1290211267179448</v>
       </c>
       <c r="C53">
-        <v>0.00165473447874824</v>
+        <v>0.03210036625618987</v>
       </c>
       <c r="D53">
-        <v>-0.0436122925568493</v>
+        <v>-0.04682987771207153</v>
       </c>
       <c r="E53">
-        <v>-0.0002074501098360711</v>
+        <v>-0.01512694388786875</v>
       </c>
       <c r="F53">
-        <v>-0.01362585403362797</v>
+        <v>-0.007591508455705896</v>
       </c>
       <c r="G53">
-        <v>0.03077929450454762</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
+        <v>-0.03373789934967922</v>
+      </c>
+      <c r="H53">
+        <v>-0.01533840028144489</v>
+      </c>
+      <c r="I53">
+        <v>0.00921858900438513</v>
+      </c>
+      <c r="J53">
+        <v>-0.08710677775224138</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B54">
-        <v>-0.02065354717328583</v>
+        <v>0.02161163882715653</v>
       </c>
       <c r="C54">
-        <v>-0.01106355994588654</v>
+        <v>0.0009313496012704784</v>
       </c>
       <c r="D54">
-        <v>-0.02082498904804591</v>
+        <v>-0.02362345858781957</v>
       </c>
       <c r="E54">
-        <v>0.04562689407676479</v>
+        <v>0.04110897597263733</v>
       </c>
       <c r="F54">
-        <v>-0.03222546750358117</v>
+        <v>0.02612673236736523</v>
       </c>
       <c r="G54">
-        <v>0.04928380231899995</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
+        <v>-0.03580693519553946</v>
+      </c>
+      <c r="H54">
+        <v>-0.06896458870281598</v>
+      </c>
+      <c r="I54">
+        <v>-0.04039695586313374</v>
+      </c>
+      <c r="J54">
+        <v>-0.02592345410676778</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B55">
-        <v>-0.09598573794714037</v>
+        <v>0.1021370531576443</v>
       </c>
       <c r="C55">
-        <v>-0.00559942914161092</v>
+        <v>0.01543248050546537</v>
       </c>
       <c r="D55">
-        <v>-0.03230579431172542</v>
+        <v>-0.0301939463902909</v>
       </c>
       <c r="E55">
-        <v>0.01637415896841024</v>
+        <v>-0.0169395787088563</v>
       </c>
       <c r="F55">
-        <v>0.02172778305323259</v>
+        <v>0.03207482734830885</v>
       </c>
       <c r="G55">
-        <v>0.02090776857454093</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
+        <v>0.001241954318228559</v>
+      </c>
+      <c r="H55">
+        <v>-0.03215809675393073</v>
+      </c>
+      <c r="I55">
+        <v>0.0205906460223613</v>
+      </c>
+      <c r="J55">
+        <v>-0.07246969351460776</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B56">
-        <v>-0.1793058953536162</v>
+        <v>0.1691577449823711</v>
       </c>
       <c r="C56">
-        <v>-0.02639015428567901</v>
+        <v>0.01330182514420107</v>
       </c>
       <c r="D56">
-        <v>-0.09073528006782927</v>
+        <v>-0.09069039038718242</v>
       </c>
       <c r="E56">
-        <v>-0.05187226888455981</v>
+        <v>-0.06853255789923204</v>
       </c>
       <c r="F56">
-        <v>0.03708955097094312</v>
+        <v>0.001572114568446349</v>
       </c>
       <c r="G56">
-        <v>0.01337737472542372</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
+        <v>0.01103513113561392</v>
+      </c>
+      <c r="H56">
+        <v>0.03160957264972265</v>
+      </c>
+      <c r="I56">
+        <v>0.05310985306120613</v>
+      </c>
+      <c r="J56">
+        <v>-0.07950415348188536</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B57">
-        <v>-0.09449320301628193</v>
+        <v>0.07408844840736122</v>
       </c>
       <c r="C57">
-        <v>0.01538011607873395</v>
+        <v>0.01969453593682935</v>
       </c>
       <c r="D57">
-        <v>-0.009862454590085071</v>
+        <v>-0.008601991939637047</v>
       </c>
       <c r="E57">
-        <v>0.07491364749351889</v>
+        <v>0.07970355248013358</v>
       </c>
       <c r="F57">
-        <v>0.01397431952593755</v>
+        <v>0.01426939617161476</v>
       </c>
       <c r="G57">
-        <v>0.03725823388100814</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7">
+        <v>0.004827568220187153</v>
+      </c>
+      <c r="H57">
+        <v>-0.04915902455399185</v>
+      </c>
+      <c r="I57">
+        <v>0.01657559884225096</v>
+      </c>
+      <c r="J57">
+        <v>-0.009492354880125018</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B58">
-        <v>-0.1685111910336164</v>
+        <v>0.1941990829424572</v>
       </c>
       <c r="C58">
-        <v>-0.004575102484248542</v>
+        <v>0.03158950977358647</v>
       </c>
       <c r="D58">
-        <v>0.07030665698172611</v>
+        <v>0.008811042816081811</v>
       </c>
       <c r="E58">
-        <v>0.06332069901049038</v>
+        <v>0.1511411656382603</v>
       </c>
       <c r="F58">
-        <v>0.087605459197392</v>
+        <v>0.006442591274030853</v>
       </c>
       <c r="G58">
-        <v>0.1956113511575818</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
+        <v>0.1632560391642773</v>
+      </c>
+      <c r="H58">
+        <v>-0.3039941865414181</v>
+      </c>
+      <c r="I58">
+        <v>-0.1336502399775872</v>
+      </c>
+      <c r="J58">
+        <v>0.1697982537323768</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B59">
-        <v>0.01584747383368344</v>
+        <v>0.01529618756034195</v>
       </c>
       <c r="C59">
-        <v>-0.2043519826250221</v>
+        <v>-0.1999321824431901</v>
       </c>
       <c r="D59">
-        <v>-0.01845853777077985</v>
+        <v>-0.02008147432209586</v>
       </c>
       <c r="E59">
-        <v>0.03170776833845255</v>
+        <v>0.04986580075045102</v>
       </c>
       <c r="F59">
-        <v>0.01376967227712355</v>
+        <v>-0.01439192589397256</v>
       </c>
       <c r="G59">
-        <v>-0.04405162504314709</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
+        <v>0.003792599933262378</v>
+      </c>
+      <c r="H59">
+        <v>0.03013514532669843</v>
+      </c>
+      <c r="I59">
+        <v>-0.07744579610996599</v>
+      </c>
+      <c r="J59">
+        <v>-0.03640377755528021</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B60">
-        <v>-0.1740465866152971</v>
+        <v>0.1769781941233612</v>
       </c>
       <c r="C60">
-        <v>-0.1320534568406294</v>
+        <v>-0.07190779856086166</v>
       </c>
       <c r="D60">
-        <v>-0.006969847816682712</v>
+        <v>-0.02476276806203754</v>
       </c>
       <c r="E60">
-        <v>0.1800512001305277</v>
+        <v>0.2021984443039292</v>
       </c>
       <c r="F60">
-        <v>0.0120283976082288</v>
+        <v>-0.04135492556299812</v>
       </c>
       <c r="G60">
-        <v>-0.1609582374248757</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
+        <v>0.07267947746077241</v>
+      </c>
+      <c r="H60">
+        <v>0.2278770160710451</v>
+      </c>
+      <c r="I60">
+        <v>0.1050713327908828</v>
+      </c>
+      <c r="J60">
+        <v>0.04241678512915163</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B61">
-        <v>-0.0517160723625693</v>
+        <v>0.03962930390986834</v>
       </c>
       <c r="C61">
-        <v>0.001057152509082962</v>
+        <v>0.0152702954273578</v>
       </c>
       <c r="D61">
-        <v>0.01267946966293516</v>
+        <v>-0.001450354087601629</v>
       </c>
       <c r="E61">
-        <v>0.03928553028177582</v>
+        <v>0.04590636535797464</v>
       </c>
       <c r="F61">
-        <v>-0.002635456983790764</v>
+        <v>0.003475816318385119</v>
       </c>
       <c r="G61">
-        <v>-0.03444072117021206</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
+        <v>-0.001108094268294724</v>
+      </c>
+      <c r="H61">
+        <v>-0.002617732486117498</v>
+      </c>
+      <c r="I61">
+        <v>0.02357386721582077</v>
+      </c>
+      <c r="J61">
+        <v>0.02969046324562797</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -2126,171 +2684,243 @@
       <c r="G62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:7">
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B63">
-        <v>-0.03740683529515276</v>
+        <v>0.02968199693461208</v>
       </c>
       <c r="C63">
-        <v>-0.01193301980506634</v>
+        <v>0.009126399615827507</v>
       </c>
       <c r="D63">
-        <v>-0.005680188294782494</v>
+        <v>-0.007317346223695345</v>
       </c>
       <c r="E63">
-        <v>0.04131428988793291</v>
+        <v>0.03650146500981542</v>
       </c>
       <c r="F63">
-        <v>0.003939061456722662</v>
+        <v>0.01344559069752528</v>
       </c>
       <c r="G63">
-        <v>0.01744100916596298</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
+        <v>-0.005747205860410653</v>
+      </c>
+      <c r="H63">
+        <v>-0.04558204847698886</v>
+      </c>
+      <c r="I63">
+        <v>-0.01750335669234625</v>
+      </c>
+      <c r="J63">
+        <v>-0.04783459826873405</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B64">
-        <v>-0.09088968003522981</v>
+        <v>0.0663701738485912</v>
       </c>
       <c r="C64">
-        <v>0.005854415088466652</v>
+        <v>0.0308563451181025</v>
       </c>
       <c r="D64">
-        <v>-0.04628769716145074</v>
+        <v>-0.03381827608517406</v>
       </c>
       <c r="E64">
-        <v>0.1189473312738878</v>
+        <v>0.07073306530218078</v>
       </c>
       <c r="F64">
-        <v>-0.07991958672142042</v>
+        <v>0.06088276769558291</v>
       </c>
       <c r="G64">
-        <v>-0.0360314400677653</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
+        <v>-0.07275332096738017</v>
+      </c>
+      <c r="H64">
+        <v>0.01887849174866268</v>
+      </c>
+      <c r="I64">
+        <v>0.02207185620274208</v>
+      </c>
+      <c r="J64">
+        <v>-0.07929655681203564</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B65">
-        <v>0</v>
+        <v>0.01078039819220301</v>
       </c>
       <c r="C65">
-        <v>0</v>
+        <v>0.004185692762317896</v>
       </c>
       <c r="D65">
-        <v>0</v>
+        <v>-0.0008092230769481627</v>
       </c>
       <c r="E65">
-        <v>0</v>
+        <v>0.004011695411862641</v>
       </c>
       <c r="F65">
-        <v>0</v>
+        <v>0.001279288692541311</v>
       </c>
       <c r="G65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
+        <v>0.01331087670253411</v>
+      </c>
+      <c r="H65">
+        <v>-0.002872413779918435</v>
+      </c>
+      <c r="I65">
+        <v>-0.0009628658935661482</v>
+      </c>
+      <c r="J65">
+        <v>-0.0004693585605011941</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B66">
-        <v>-0.1028488150593023</v>
+        <v>0.07526664178714142</v>
       </c>
       <c r="C66">
-        <v>0.006797466597146615</v>
+        <v>0.03731519845995258</v>
       </c>
       <c r="D66">
-        <v>-0.02290882409037706</v>
+        <v>-0.03986590170322551</v>
       </c>
       <c r="E66">
-        <v>0.09362733820265774</v>
+        <v>0.08863088560668392</v>
       </c>
       <c r="F66">
-        <v>-0.006505950691298167</v>
+        <v>0.005245496212709494</v>
       </c>
       <c r="G66">
-        <v>-0.01121018079795302</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
+        <v>-0.003806556229915704</v>
+      </c>
+      <c r="H66">
+        <v>-0.0169030333043113</v>
+      </c>
+      <c r="I66">
+        <v>0.04369548345253044</v>
+      </c>
+      <c r="J66">
+        <v>0.01293243817118023</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B67">
-        <v>-0.06023193244608144</v>
+        <v>0.04005669519890419</v>
       </c>
       <c r="C67">
-        <v>-0.02134197923065047</v>
+        <v>-0.01000678132259884</v>
       </c>
       <c r="D67">
-        <v>-0.006775666034027034</v>
+        <v>-0.004693889185997072</v>
       </c>
       <c r="E67">
-        <v>0.03026399309863985</v>
+        <v>0.04113482403943398</v>
       </c>
       <c r="F67">
-        <v>0.003347636539288812</v>
+        <v>0.007553508534908987</v>
       </c>
       <c r="G67">
-        <v>0.02458824053598491</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7">
+        <v>-0.02164204565709509</v>
+      </c>
+      <c r="H67">
+        <v>0.001995099968308215</v>
+      </c>
+      <c r="I67">
+        <v>0.02896171927779541</v>
+      </c>
+      <c r="J67">
+        <v>0.02151375287008099</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B68">
-        <v>0.01546495475448217</v>
+        <v>0.02304446074776255</v>
       </c>
       <c r="C68">
-        <v>-0.245180217949121</v>
+        <v>-0.2381397515650742</v>
       </c>
       <c r="D68">
-        <v>0.002165520606049399</v>
+        <v>-0.009621902758413653</v>
       </c>
       <c r="E68">
-        <v>0.01618523911916778</v>
+        <v>0.03560728543400814</v>
       </c>
       <c r="F68">
-        <v>0.02562562388774478</v>
+        <v>-8.628540860563105e-05</v>
       </c>
       <c r="G68">
-        <v>-0.03573608812584161</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
+        <v>0.01678787538567171</v>
+      </c>
+      <c r="H68">
+        <v>0.0350037259040662</v>
+      </c>
+      <c r="I68">
+        <v>-0.1567677861227474</v>
+      </c>
+      <c r="J68">
+        <v>-0.08421542641532669</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B69">
-        <v>-0.06428754422003109</v>
+        <v>0.06858074910983632</v>
       </c>
       <c r="C69">
-        <v>0.004556166804003201</v>
+        <v>0.01034608237411108</v>
       </c>
       <c r="D69">
-        <v>-0.02741545303662314</v>
+        <v>-0.02741582816382251</v>
       </c>
       <c r="E69">
-        <v>0.001433519329435109</v>
+        <v>0.012741601188897</v>
       </c>
       <c r="F69">
-        <v>-0.002028509466061508</v>
+        <v>-0.006984798834237335</v>
       </c>
       <c r="G69">
-        <v>0.009159169964060288</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
+        <v>-0.02461212279126996</v>
+      </c>
+      <c r="H69">
+        <v>-0.04831385304401856</v>
+      </c>
+      <c r="I69">
+        <v>0.0002765433166941135</v>
+      </c>
+      <c r="J69">
+        <v>-0.01003174969888308</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2310,194 +2940,275 @@
       <c r="G70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:7">
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B71">
-        <v>0.006562189279648683</v>
+        <v>0.03093078291476455</v>
       </c>
       <c r="C71">
-        <v>-0.2363893573070335</v>
+        <v>-0.2396702951843742</v>
       </c>
       <c r="D71">
-        <v>0.008967147113932617</v>
+        <v>0.01086840425759043</v>
       </c>
       <c r="E71">
-        <v>0.02941152130410609</v>
+        <v>0.05204642293345697</v>
       </c>
       <c r="F71">
-        <v>0.02936436897766538</v>
+        <v>-0.02812324530888068</v>
       </c>
       <c r="G71">
-        <v>-0.1353132516037808</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
+        <v>0.001392356355476606</v>
+      </c>
+      <c r="H71">
+        <v>0.04941562228062867</v>
+      </c>
+      <c r="I71">
+        <v>-0.1625285647832312</v>
+      </c>
+      <c r="J71">
+        <v>-0.02220169535365606</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B72">
-        <v>-0.1038285435525185</v>
+        <v>0.1120726594455462</v>
       </c>
       <c r="C72">
-        <v>-0.02925419300051857</v>
+        <v>-0.01195686465014384</v>
       </c>
       <c r="D72">
-        <v>-0.03849365554341549</v>
+        <v>-0.05997534449229147</v>
       </c>
       <c r="E72">
-        <v>0.06658562680820199</v>
+        <v>0.08290558211669158</v>
       </c>
       <c r="F72">
-        <v>0.01194585665287594</v>
+        <v>0.01812108560994471</v>
       </c>
       <c r="G72">
-        <v>0.02585082731814354</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7">
+        <v>0.03259628304912679</v>
+      </c>
+      <c r="H72">
+        <v>-0.00233613951112798</v>
+      </c>
+      <c r="I72">
+        <v>-0.009703705782284897</v>
+      </c>
+      <c r="J72">
+        <v>0.01914000643628903</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B73">
-        <v>-0.2674148542846866</v>
+        <v>0.2708598800237563</v>
       </c>
       <c r="C73">
-        <v>-0.2298857866328523</v>
+        <v>-0.1523489056152807</v>
       </c>
       <c r="D73">
-        <v>0.04336998371704204</v>
+        <v>-0.002131036587559137</v>
       </c>
       <c r="E73">
-        <v>0.2538347269369287</v>
+        <v>0.3092139237159258</v>
       </c>
       <c r="F73">
-        <v>0.07402504226935304</v>
+        <v>-0.07743559894382356</v>
       </c>
       <c r="G73">
-        <v>-0.4027892840983932</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7">
+        <v>0.1668667248320068</v>
+      </c>
+      <c r="H73">
+        <v>0.4158993237518582</v>
+      </c>
+      <c r="I73">
+        <v>0.2419346788536505</v>
+      </c>
+      <c r="J73">
+        <v>0.31985221026824</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
       <c r="A74" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B74">
-        <v>-0.1548553222574881</v>
+        <v>0.1533940601669998</v>
       </c>
       <c r="C74">
-        <v>-0.01782998702959052</v>
+        <v>0.005830304156649578</v>
       </c>
       <c r="D74">
-        <v>-0.0527268256777822</v>
+        <v>-0.04731850397752989</v>
       </c>
       <c r="E74">
-        <v>0.008215922696949013</v>
+        <v>-0.02536497340399881</v>
       </c>
       <c r="F74">
-        <v>0.04124983894766043</v>
+        <v>0.002051107434926025</v>
       </c>
       <c r="G74">
-        <v>-0.002740431335543541</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
+        <v>0.01199610480049194</v>
+      </c>
+      <c r="H74">
+        <v>0.02069840674775233</v>
+      </c>
+      <c r="I74">
+        <v>0.0509699751462366</v>
+      </c>
+      <c r="J74">
+        <v>-0.08414230041353271</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
       <c r="A75" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B75">
-        <v>-0.2349390148281238</v>
+        <v>0.2447628953230861</v>
       </c>
       <c r="C75">
-        <v>-0.02209312874328199</v>
+        <v>0.0159278325923187</v>
       </c>
       <c r="D75">
-        <v>-0.07562420148679148</v>
+        <v>-0.104032865177911</v>
       </c>
       <c r="E75">
-        <v>-0.09206254612793384</v>
+        <v>-0.1112455030894096</v>
       </c>
       <c r="F75">
-        <v>0.01122125303081111</v>
+        <v>-0.02468018968366194</v>
       </c>
       <c r="G75">
-        <v>0.04626747068605066</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
+        <v>-0.02726336195867454</v>
+      </c>
+      <c r="H75">
+        <v>0.01392383340347786</v>
+      </c>
+      <c r="I75">
+        <v>0.05140665842623604</v>
+      </c>
+      <c r="J75">
+        <v>-0.180792458298739</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
       <c r="A76" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B76">
-        <v>-0.2388306113605804</v>
+        <v>0.2596117018993492</v>
       </c>
       <c r="C76">
-        <v>-0.02362611105062938</v>
+        <v>0.006076884966343932</v>
       </c>
       <c r="D76">
-        <v>-0.1168616951809206</v>
+        <v>-0.128680394990184</v>
       </c>
       <c r="E76">
-        <v>-0.06666572509992018</v>
+        <v>-0.132500162802522</v>
       </c>
       <c r="F76">
-        <v>0.02249122030636693</v>
+        <v>0.006237401206864156</v>
       </c>
       <c r="G76">
-        <v>0.02150382553772386</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7">
+        <v>0.01111239034199697</v>
+      </c>
+      <c r="H76">
+        <v>0.00993052289379282</v>
+      </c>
+      <c r="I76">
+        <v>0.1123041753339882</v>
+      </c>
+      <c r="J76">
+        <v>-0.1622663891518835</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
       <c r="A77" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B77">
-        <v>-0.1225331963811327</v>
+        <v>0.1327077624190706</v>
       </c>
       <c r="C77">
-        <v>0.0004570205062256924</v>
+        <v>0.02535220150884607</v>
       </c>
       <c r="D77">
-        <v>0.08982979892080549</v>
+        <v>0.05387251531925214</v>
       </c>
       <c r="E77">
-        <v>0.1666744750227223</v>
+        <v>0.1695906407895479</v>
       </c>
       <c r="F77">
-        <v>0.03766141444550059</v>
+        <v>0.06191568747635954</v>
       </c>
       <c r="G77">
-        <v>0.1286850221297369</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7">
+        <v>0.02111082112900289</v>
+      </c>
+      <c r="H77">
+        <v>-0.1498188193978522</v>
+      </c>
+      <c r="I77">
+        <v>-0.1305735246085087</v>
+      </c>
+      <c r="J77">
+        <v>-0.1037441281469069</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
       <c r="A78" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B78">
-        <v>-0.09490034262258405</v>
+        <v>0.09044155326080902</v>
       </c>
       <c r="C78">
-        <v>0.02109813160481407</v>
+        <v>0.0461555291122306</v>
       </c>
       <c r="D78">
-        <v>0.0328147735705215</v>
+        <v>0.005162041207097923</v>
       </c>
       <c r="E78">
-        <v>0.07998633908492132</v>
+        <v>0.0906238451585912</v>
       </c>
       <c r="F78">
-        <v>0.01215020029522631</v>
+        <v>0.03814696888513794</v>
       </c>
       <c r="G78">
-        <v>-0.02674674380394619</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7">
+        <v>0.01053927159429234</v>
+      </c>
+      <c r="H78">
+        <v>-0.01484792472459114</v>
+      </c>
+      <c r="I78">
+        <v>-0.02852592530610175</v>
+      </c>
+      <c r="J78">
+        <v>-0.03423884755966553</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
       <c r="A79" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2517,56 +3228,83 @@
       <c r="G79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:7">
+      <c r="H79">
+        <v>0</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+      <c r="J79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
       <c r="A80" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B80">
-        <v>-0.07950875482991018</v>
+        <v>0.08827803228329752</v>
       </c>
       <c r="C80">
-        <v>-0.01264418870712858</v>
+        <v>-0.07647040084368183</v>
       </c>
       <c r="D80">
-        <v>0.02451031130898593</v>
+        <v>0.1731291530466355</v>
       </c>
       <c r="E80">
-        <v>-0.0195605950939202</v>
+        <v>-0.1763632784678605</v>
       </c>
       <c r="F80">
-        <v>0.01937671142267202</v>
+        <v>0.9316463285360524</v>
       </c>
       <c r="G80">
-        <v>0.3131696217273536</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7">
+        <v>-0.02955199030303261</v>
+      </c>
+      <c r="H80">
+        <v>0.1633271087460416</v>
+      </c>
+      <c r="I80">
+        <v>0.01313000948341687</v>
+      </c>
+      <c r="J80">
+        <v>0.1069831607448092</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
       <c r="A81" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B81">
-        <v>-0.1644862674730626</v>
+        <v>0.173846147712559</v>
       </c>
       <c r="C81">
-        <v>-0.01494060488533887</v>
+        <v>0.005361539737099562</v>
       </c>
       <c r="D81">
-        <v>-0.0678599057971834</v>
+        <v>-0.0903093231920172</v>
       </c>
       <c r="E81">
-        <v>-0.1112355395781826</v>
+        <v>-0.1341560327811164</v>
       </c>
       <c r="F81">
-        <v>0.02788754084257743</v>
+        <v>-0.02574578151263167</v>
       </c>
       <c r="G81">
-        <v>0.03189426155997897</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7">
+        <v>0.004704578253189489</v>
+      </c>
+      <c r="H81">
+        <v>0.009263005255090636</v>
+      </c>
+      <c r="I81">
+        <v>0.05169196052047734</v>
+      </c>
+      <c r="J81">
+        <v>-0.1270466187206996</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
       <c r="A82" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -2586,33 +3324,51 @@
       <c r="G82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:7">
+      <c r="H82">
+        <v>0</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+      <c r="J82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
       <c r="A83" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B83">
-        <v>-0.07853282602275677</v>
+        <v>0.06475253589846132</v>
       </c>
       <c r="C83">
-        <v>0.01696045740869442</v>
+        <v>0.03141795406691712</v>
       </c>
       <c r="D83">
-        <v>0.09540583100690689</v>
+        <v>0.0448131434697868</v>
       </c>
       <c r="E83">
-        <v>0.06817782609561324</v>
+        <v>0.06818126428452022</v>
       </c>
       <c r="F83">
-        <v>-0.05657884476515807</v>
+        <v>-0.007226860884401065</v>
       </c>
       <c r="G83">
-        <v>0.04596214807873076</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7">
+        <v>-0.04862794507632939</v>
+      </c>
+      <c r="H83">
+        <v>-0.04096501066592613</v>
+      </c>
+      <c r="I83">
+        <v>0.01361998955817979</v>
+      </c>
+      <c r="J83">
+        <v>-0.08515229209380228</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
       <c r="A84" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2632,263 +3388,371 @@
       <c r="G84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:7">
+      <c r="H84">
+        <v>0</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+      <c r="J84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
       <c r="A85" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B85">
-        <v>-0.2475639684364443</v>
+        <v>0.2576104779703934</v>
       </c>
       <c r="C85">
-        <v>0.03923771781330565</v>
+        <v>0.04988382999856766</v>
       </c>
       <c r="D85">
-        <v>-0.06673497282783405</v>
+        <v>-0.0868090796660146</v>
       </c>
       <c r="E85">
-        <v>-0.1027512047233612</v>
+        <v>-0.1372055413601646</v>
       </c>
       <c r="F85">
-        <v>-0.003113218386678168</v>
+        <v>0.009937092474067493</v>
       </c>
       <c r="G85">
-        <v>0.0718472148864289</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7">
+        <v>-0.02737980269643821</v>
+      </c>
+      <c r="H85">
+        <v>-0.0216391882639561</v>
+      </c>
+      <c r="I85">
+        <v>0.07615102350758601</v>
+      </c>
+      <c r="J85">
+        <v>-0.2056107406508254</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
       <c r="A86" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B86">
-        <v>-0.04614131139411706</v>
+        <v>0.03106889480494369</v>
       </c>
       <c r="C86">
-        <v>0.02435625116145648</v>
+        <v>0.03811646128048598</v>
       </c>
       <c r="D86">
-        <v>-0.001475766795541359</v>
+        <v>-0.00393693063095179</v>
       </c>
       <c r="E86">
-        <v>0.05333124475037877</v>
+        <v>0.0598525528833675</v>
       </c>
       <c r="F86">
-        <v>0.01435193675514843</v>
+        <v>0.03654277169129586</v>
       </c>
       <c r="G86">
-        <v>0.01651252912916242</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7">
+        <v>0.009071740582241368</v>
+      </c>
+      <c r="H86">
+        <v>-0.03829547836863233</v>
+      </c>
+      <c r="I86">
+        <v>-0.07380994687186471</v>
+      </c>
+      <c r="J86">
+        <v>0.003695330331856656</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
       <c r="A87" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B87">
-        <v>-0.03182427488744838</v>
+        <v>0.03920263373745702</v>
       </c>
       <c r="C87">
-        <v>-0.0516667691131514</v>
+        <v>-0.02573183007312786</v>
       </c>
       <c r="D87">
-        <v>-0.005244642425033422</v>
+        <v>-0.0005957786515265608</v>
       </c>
       <c r="E87">
-        <v>0.05614496390156443</v>
+        <v>0.08605289416962247</v>
       </c>
       <c r="F87">
-        <v>-0.008287525532711205</v>
+        <v>0.01826287353076617</v>
       </c>
       <c r="G87">
-        <v>-0.1611910466460584</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7">
+        <v>-0.003153821471681574</v>
+      </c>
+      <c r="H87">
+        <v>0.01535264153106486</v>
+      </c>
+      <c r="I87">
+        <v>-0.03746066655921114</v>
+      </c>
+      <c r="J87">
+        <v>0.1013538585191738</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
       <c r="A88" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B88">
-        <v>-0.03683009440588993</v>
+        <v>0.02213844804767783</v>
       </c>
       <c r="C88">
-        <v>0.01835292849059406</v>
+        <v>0.01647423657015173</v>
       </c>
       <c r="D88">
-        <v>-0.007391353555612246</v>
+        <v>-0.011947191733594</v>
       </c>
       <c r="E88">
-        <v>0.005168437726119459</v>
+        <v>0.004390947906724276</v>
       </c>
       <c r="F88">
-        <v>0.001834525198546933</v>
+        <v>0.02206481692950452</v>
       </c>
       <c r="G88">
-        <v>0.06448793179661294</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7">
+        <v>-0.03337616985328563</v>
+      </c>
+      <c r="H88">
+        <v>-0.04410952514861158</v>
+      </c>
+      <c r="I88">
+        <v>0.008564913790863854</v>
+      </c>
+      <c r="J88">
+        <v>0.02070622161975816</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
       <c r="A89" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B89">
-        <v>0.03313946337814673</v>
+        <v>0.03555362579247083</v>
       </c>
       <c r="C89">
-        <v>-0.4348456123681976</v>
+        <v>-0.4033457209321222</v>
       </c>
       <c r="D89">
-        <v>0.08646288253729187</v>
+        <v>0.03505399222953585</v>
       </c>
       <c r="E89">
-        <v>-0.0457113831706538</v>
+        <v>0.03784554291417213</v>
       </c>
       <c r="F89">
-        <v>-0.03340574327154772</v>
+        <v>-0.04755829642050528</v>
       </c>
       <c r="G89">
-        <v>0.03357007715740981</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7">
+        <v>-0.06933078863398705</v>
+      </c>
+      <c r="H89">
+        <v>-0.007012682684902998</v>
+      </c>
+      <c r="I89">
+        <v>-0.2401168888686763</v>
+      </c>
+      <c r="J89">
+        <v>-0.1582611512387675</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
       <c r="A90" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B90">
-        <v>0.03190904719964142</v>
+        <v>0.01818381564680754</v>
       </c>
       <c r="C90">
-        <v>-0.3096600273141923</v>
+        <v>-0.3339407547676689</v>
       </c>
       <c r="D90">
-        <v>0.01810167636477372</v>
+        <v>0.01645703849224186</v>
       </c>
       <c r="E90">
-        <v>0.00829957956790979</v>
+        <v>0.02197939521261085</v>
       </c>
       <c r="F90">
-        <v>0.01350178899727549</v>
+        <v>0.001522082232351222</v>
       </c>
       <c r="G90">
-        <v>-0.07057429437759662</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7">
+        <v>-0.01203940750596447</v>
+      </c>
+      <c r="H90">
+        <v>0.04553057218204141</v>
+      </c>
+      <c r="I90">
+        <v>-0.1749221961948353</v>
+      </c>
+      <c r="J90">
+        <v>-0.1132358498837265</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
       <c r="A91" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B91">
-        <v>-0.3145097351465524</v>
+        <v>0.3225158844802519</v>
       </c>
       <c r="C91">
-        <v>0.008429132918484456</v>
+        <v>0.03158742378220482</v>
       </c>
       <c r="D91">
-        <v>-0.09560106932576629</v>
+        <v>-0.1083189765735057</v>
       </c>
       <c r="E91">
-        <v>-0.2407752708224306</v>
+        <v>-0.2606504663062066</v>
       </c>
       <c r="F91">
-        <v>0.02751018112087862</v>
+        <v>-0.03431894000874768</v>
       </c>
       <c r="G91">
-        <v>0.1990528020950631</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7">
+        <v>0.005142194220910757</v>
+      </c>
+      <c r="H91">
+        <v>0.005960591194972643</v>
+      </c>
+      <c r="I91">
+        <v>0.1286461773512183</v>
+      </c>
+      <c r="J91">
+        <v>-0.3486892526294674</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
       <c r="A92" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B92">
-        <v>0.0446087413002437</v>
+        <v>0.05593699032271289</v>
       </c>
       <c r="C92">
-        <v>-0.4468790918520743</v>
+        <v>-0.4783092563950045</v>
       </c>
       <c r="D92">
-        <v>0.1901697965417247</v>
+        <v>0.0621007427545097</v>
       </c>
       <c r="E92">
-        <v>-0.1543309330027149</v>
+        <v>-0.1461967305833027</v>
       </c>
       <c r="F92">
-        <v>0.04096427367978086</v>
+        <v>-0.01505404972005127</v>
       </c>
       <c r="G92">
-        <v>0.5140677938805325</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7">
+        <v>-0.06454934968774814</v>
+      </c>
+      <c r="H92">
+        <v>-0.561630620855961</v>
+      </c>
+      <c r="I92">
+        <v>0.5543225144097407</v>
+      </c>
+      <c r="J92">
+        <v>0.2759945637934639</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
       <c r="A93" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B93">
-        <v>0.04511297110664048</v>
+        <v>0.01719014651309095</v>
       </c>
       <c r="C93">
-        <v>-0.3588319786092362</v>
+        <v>-0.4047350186373729</v>
       </c>
       <c r="D93">
-        <v>0.06079172661055527</v>
+        <v>0.04326329162953604</v>
       </c>
       <c r="E93">
-        <v>-0.06505501023275025</v>
+        <v>-0.03113825812774657</v>
       </c>
       <c r="F93">
-        <v>0.00297657453951873</v>
+        <v>-0.02586539103951669</v>
       </c>
       <c r="G93">
-        <v>0.02165631607437008</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7">
+        <v>-0.0401601384949651</v>
+      </c>
+      <c r="H93">
+        <v>0.05827909215057134</v>
+      </c>
+      <c r="I93">
+        <v>-0.16912864138628</v>
+      </c>
+      <c r="J93">
+        <v>-0.1542519624086057</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
       <c r="A94" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B94">
-        <v>-0.3172509086952419</v>
+        <v>0.3294589958507828</v>
       </c>
       <c r="C94">
-        <v>0.01431005092061548</v>
+        <v>0.0282892422994295</v>
       </c>
       <c r="D94">
-        <v>-0.09521761355383518</v>
+        <v>-0.1660699910333971</v>
       </c>
       <c r="E94">
-        <v>-0.5922317795168243</v>
+        <v>-0.4291139494066015</v>
       </c>
       <c r="F94">
-        <v>0.2897595547559133</v>
+        <v>-0.1053939164756623</v>
       </c>
       <c r="G94">
-        <v>-0.1873276246452406</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7">
+        <v>0.1910203377782588</v>
+      </c>
+      <c r="H94">
+        <v>-0.06129074464871372</v>
+      </c>
+      <c r="I94">
+        <v>-0.4800817254933113</v>
+      </c>
+      <c r="J94">
+        <v>0.5434587049439732</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
       <c r="A95" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B95">
-        <v>-0.1806454978310856</v>
+        <v>0.1429287017968564</v>
       </c>
       <c r="C95">
-        <v>-0.04812687906798053</v>
+        <v>0.04988917676555893</v>
       </c>
       <c r="D95">
-        <v>-0.03509334808027323</v>
+        <v>-0.02684789952602252</v>
       </c>
       <c r="E95">
-        <v>-0.1417292961380034</v>
+        <v>0.02564606420037186</v>
       </c>
       <c r="F95">
-        <v>-0.9246490617748725</v>
+        <v>-0.07541810409936818</v>
       </c>
       <c r="G95">
-        <v>-0.02304492000866484</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7">
+        <v>-0.9215447641309924</v>
+      </c>
+      <c r="H95">
+        <v>0.101913326072689</v>
+      </c>
+      <c r="I95">
+        <v>-0.06542087367505101</v>
+      </c>
+      <c r="J95">
+        <v>0.2346754835953385</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
       <c r="A96" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2908,10 +3772,19 @@
       <c r="G96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:7">
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
       <c r="A97" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2931,33 +3804,51 @@
       <c r="G97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:7">
+      <c r="H97">
+        <v>0</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+      <c r="J97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
       <c r="A98" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B98">
-        <v>-0.2076908066379592</v>
+        <v>0.2062781239969094</v>
       </c>
       <c r="C98">
-        <v>-0.1547743740718804</v>
+        <v>-0.09822577190300698</v>
       </c>
       <c r="D98">
-        <v>0.02811499821080252</v>
+        <v>0.003800899281646865</v>
       </c>
       <c r="E98">
-        <v>0.09255586504442548</v>
+        <v>0.1583081994295474</v>
       </c>
       <c r="F98">
-        <v>0.008197239395239904</v>
+        <v>-0.07730320680150934</v>
       </c>
       <c r="G98">
-        <v>-0.2501052921654381</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7">
+        <v>0.07748794175966749</v>
+      </c>
+      <c r="H98">
+        <v>0.2961871967958219</v>
+      </c>
+      <c r="I98">
+        <v>0.1912568578077407</v>
+      </c>
+      <c r="J98">
+        <v>0.1167594417457674</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
       <c r="A99" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2977,10 +3868,19 @@
       <c r="G99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:7">
+      <c r="H99">
+        <v>0</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+      <c r="J99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
       <c r="A100" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -3000,79 +3900,115 @@
       <c r="G100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:7">
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
       <c r="A101" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B101">
-        <v>-0.01920246880953703</v>
+        <v>0.01324304878912135</v>
       </c>
       <c r="C101">
-        <v>0.01433702238595474</v>
+        <v>0.0282140553891686</v>
       </c>
       <c r="D101">
-        <v>-0.01542135840999973</v>
+        <v>-0.0217851935376856</v>
       </c>
       <c r="E101">
-        <v>0.04165355516060826</v>
+        <v>0.06116386467582927</v>
       </c>
       <c r="F101">
-        <v>0.003210889205142409</v>
+        <v>0.03631825751977868</v>
       </c>
       <c r="G101">
-        <v>0.04203370523301438</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7">
+        <v>0.001301798303937235</v>
+      </c>
+      <c r="H101">
+        <v>-0.1229033798192134</v>
+      </c>
+      <c r="I101">
+        <v>-0.008211850527874886</v>
+      </c>
+      <c r="J101">
+        <v>0.004501487375258764</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10">
       <c r="A102" s="1" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B102">
-        <v>-0.1202696379228918</v>
+        <v>0.1197480179313059</v>
       </c>
       <c r="C102">
-        <v>-0.002027541970867063</v>
+        <v>0.02472395759976438</v>
       </c>
       <c r="D102">
-        <v>-0.05139125318684534</v>
+        <v>-0.0532334092293373</v>
       </c>
       <c r="E102">
-        <v>-0.05772846113932546</v>
+        <v>-0.07877175602028537</v>
       </c>
       <c r="F102">
-        <v>-0.03750658511004028</v>
+        <v>0.002575563962531787</v>
       </c>
       <c r="G102">
-        <v>0.01786698813997687</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7">
+        <v>-0.04546153663456505</v>
+      </c>
+      <c r="H102">
+        <v>0.006367661293037522</v>
+      </c>
+      <c r="I102">
+        <v>-0.005483373306689203</v>
+      </c>
+      <c r="J102">
+        <v>-0.06350183563812216</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10">
       <c r="A103" s="1" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B103">
-        <v>-0.01521892904728199</v>
+        <v>0.02135202663648228</v>
       </c>
       <c r="C103">
-        <v>0.002262325993199928</v>
+        <v>0.005896664882989514</v>
       </c>
       <c r="D103">
-        <v>-0.01709061019218621</v>
+        <v>-0.01738098409278818</v>
       </c>
       <c r="E103">
-        <v>-0.02690941637568432</v>
+        <v>-0.01627262952997318</v>
       </c>
       <c r="F103">
-        <v>0.006690546136272736</v>
+        <v>0.0001892737881712266</v>
       </c>
       <c r="G103">
-        <v>-0.009237536589968901</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7">
+        <v>-0.01504445247560437</v>
+      </c>
+      <c r="H103">
+        <v>-0.002035331874478504</v>
+      </c>
+      <c r="I103">
+        <v>-0.02372605724114034</v>
+      </c>
+      <c r="J103">
+        <v>-0.002218321437837669</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10">
       <c r="A104" s="1" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -3090,6 +4026,15 @@
         <v>0</v>
       </c>
       <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
         <v>0</v>
       </c>
     </row>
